--- a/Proyecto/Venta/clientes-varios/clientes-locales/clientes-locales.xlsx
+++ b/Proyecto/Venta/clientes-varios/clientes-locales/clientes-locales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\OneDrive\Documentos\UiPath\Venta\clientes-varios\clientes-locales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Documents\Gerenciales2\SOG21S25_201709282\Proyecto\Venta\clientes-varios\clientes-locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD722C-6D8B-437D-923A-DCAD9D514257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411176E7-202E-499B-89DB-4FA54BC377EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="11115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -870,7 +870,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -894,7 +894,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A51" si="0">A3+1</f>
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -918,7 +918,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -942,7 +942,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -966,7 +966,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -990,7 +990,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1014,7 +1014,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1038,7 +1038,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1062,7 +1062,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -1086,7 +1086,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1110,7 +1110,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1134,7 +1134,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -1158,7 +1158,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1182,7 +1182,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -1206,7 +1206,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1230,7 +1230,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -1254,7 +1254,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1278,7 +1278,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -1302,7 +1302,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1326,7 +1326,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -1350,7 +1350,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1374,7 +1374,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1398,7 +1398,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -1422,7 +1422,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -1446,7 +1446,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
@@ -1470,7 +1470,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
@@ -1494,7 +1494,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
         <v>87</v>
@@ -1518,7 +1518,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
@@ -1542,7 +1542,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
@@ -1566,7 +1566,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -1590,7 +1590,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1614,7 +1614,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1638,7 +1638,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -1662,7 +1662,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
@@ -1686,7 +1686,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
@@ -1710,7 +1710,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
@@ -1734,7 +1734,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
@@ -1758,7 +1758,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1782,7 +1782,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>116</v>
@@ -1806,7 +1806,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
@@ -1830,7 +1830,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1854,7 +1854,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>92</v>
@@ -1878,7 +1878,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>125</v>
@@ -1902,7 +1902,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
         <v>128</v>
@@ -1926,7 +1926,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>131</v>
@@ -1950,7 +1950,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -1974,7 +1974,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1998,7 +1998,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
@@ -2022,7 +2022,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
         <v>141</v>
